--- a/Lexical_Decision_Task_Potsdam/experimental_trials.xlsx
+++ b/Lexical_Decision_Task_Potsdam/experimental_trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgiopapitto/Documents/GitHub/Lexical_Decision_Task_Potsdam/Lexical_Decision_Task_Potsdam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E947A1-2A4D-D24F-A7A1-AE1788E5DEE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF5B8C4-A3D3-A94D-98D6-4C1924CE28BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1980" windowWidth="28520" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>words</t>
-  </si>
-  <si>
-    <t>number_of_letters</t>
   </si>
   <si>
     <t>corrAns</t>
@@ -497,19 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" customWidth="1"/>
+    <col min="5" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,493 +517,394 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
+      <c r="B33" t="s">
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D48" s="1"/>
-    </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
